--- a/data/trans_orig/Q5410A_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5410A_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB4FE7EF-7034-49BA-89B8-9DA47A789FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{799F7800-D7FC-47FF-982D-4F0166D4AE98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{715CD992-940A-4B9B-A187-7A87FC87952B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{20513BB8-D0DD-4247-A3BB-47F02096B799}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="215">
   <si>
     <t>Población según si necesita  enema o supositorio y es capaz de utilizarlos en 2023 (Tasa respuesta: 1,24%)</t>
   </si>
@@ -167,16 +167,16 @@
     <t>23,79%</t>
   </si>
   <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
   </si>
   <si>
     <t>21,23%</t>
   </si>
   <si>
-    <t>80,25%</t>
+    <t>74,2%</t>
   </si>
   <si>
     <t>35,94%</t>
@@ -191,10 +191,10 @@
     <t>31,72%</t>
   </si>
   <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>54,95%</t>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
   </si>
   <si>
     <t>11,83%</t>
@@ -206,7 +206,7 @@
     <t>19,85%</t>
   </si>
   <si>
-    <t>72,89%</t>
+    <t>78,91%</t>
   </si>
   <si>
     <t>25,57%</t>
@@ -221,16 +221,16 @@
     <t>23,93%</t>
   </si>
   <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
   </si>
   <si>
     <t>34,13%</t>
   </si>
   <si>
-    <t>73,4%</t>
+    <t>74,51%</t>
   </si>
   <si>
     <t>15,1%</t>
@@ -242,10 +242,10 @@
     <t>20,56%</t>
   </si>
   <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -254,7 +254,7 @@
     <t>10,78%</t>
   </si>
   <si>
-    <t>52,12%</t>
+    <t>51,26%</t>
   </si>
   <si>
     <t>20,24%</t>
@@ -269,343 +269,340 @@
     <t>17,89%</t>
   </si>
   <si>
-    <t>7,19%</t>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>62,22%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>57,32%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
   </si>
   <si>
     <t>33,69%</t>
   </si>
   <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>72,6%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>47,32%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>62,22%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>57,32%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>49,5%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>69,46%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>68,16%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
     <t>17,65%</t>
   </si>
   <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
   </si>
   <si>
     <t>17,08%</t>
   </si>
   <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
   </si>
   <si>
     <t>40,92%</t>
   </si>
   <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
   </si>
   <si>
     <t>29,37%</t>
   </si>
   <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
   </si>
   <si>
     <t>32,15%</t>
   </si>
   <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
   </si>
   <si>
     <t>7,32%</t>
@@ -614,73 +611,73 @@
     <t>4,72%</t>
   </si>
   <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
   </si>
   <si>
     <t>3,59%</t>
   </si>
   <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
   </si>
   <si>
     <t>17,52%</t>
   </si>
   <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
   </si>
   <si>
     <t>27,36%</t>
   </si>
   <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
   </si>
   <si>
     <t>24,99%</t>
   </si>
   <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
   </si>
   <si>
     <t>26,29%</t>
   </si>
   <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
   </si>
   <si>
     <t>20,9%</t>
   </si>
   <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
   </si>
   <si>
     <t>22,19%</t>
   </si>
   <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1095,7 +1092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A88B4E2F-2566-4EC2-9200-7BA78069E1C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2FF26CF-E202-487A-A769-A898FF7314E0}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2212,10 +2209,10 @@
         <v>115</v>
       </c>
       <c r="K23" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M23" s="7">
         <v>9</v>
@@ -2224,13 +2221,13 @@
         <v>6421</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2266,7 +2263,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -2281,7 +2278,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2311,13 +2308,13 @@
         <v>1311</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -2326,13 +2323,13 @@
         <v>1311</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2347,13 +2344,13 @@
         <v>787</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -2362,13 +2359,13 @@
         <v>2558</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -2377,13 +2374,13 @@
         <v>3346</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2439,7 +2436,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2451,13 +2448,13 @@
         <v>1210</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H28" s="7">
         <v>4</v>
@@ -2466,13 +2463,13 @@
         <v>2275</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M28" s="7">
         <v>6</v>
@@ -2481,13 +2478,13 @@
         <v>3485</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2502,13 +2499,13 @@
         <v>1407</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H29" s="7">
         <v>6</v>
@@ -2517,13 +2514,13 @@
         <v>3808</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M29" s="7">
         <v>8</v>
@@ -2532,13 +2529,13 @@
         <v>5215</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2568,13 +2565,13 @@
         <v>1737</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M30" s="7">
         <v>2</v>
@@ -2583,13 +2580,13 @@
         <v>1737</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2604,13 +2601,13 @@
         <v>707</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H31" s="7">
         <v>7</v>
@@ -2619,13 +2616,13 @@
         <v>6826</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M31" s="7">
         <v>8</v>
@@ -2634,13 +2631,13 @@
         <v>7533</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2655,13 +2652,13 @@
         <v>715</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H32" s="7">
         <v>4</v>
@@ -2670,13 +2667,13 @@
         <v>2462</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M32" s="7">
         <v>5</v>
@@ -2685,13 +2682,13 @@
         <v>3177</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2759,13 +2756,13 @@
         <v>2428</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H34" s="7">
         <v>16</v>
@@ -2774,13 +2771,13 @@
         <v>8876</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M34" s="7">
         <v>21</v>
@@ -2789,13 +2786,13 @@
         <v>11303</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2810,13 +2807,13 @@
         <v>6506</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H35" s="7">
         <v>28</v>
@@ -2825,13 +2822,13 @@
         <v>14767</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M35" s="7">
         <v>37</v>
@@ -2840,13 +2837,13 @@
         <v>21272</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2867,7 +2864,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H36" s="7">
         <v>3</v>
@@ -2876,13 +2873,13 @@
         <v>2374</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M36" s="7">
         <v>3</v>
@@ -2891,13 +2888,13 @@
         <v>2374</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2912,13 +2909,13 @@
         <v>2786</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H37" s="7">
         <v>18</v>
@@ -2927,13 +2924,13 @@
         <v>13753</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M37" s="7">
         <v>22</v>
@@ -2942,13 +2939,13 @@
         <v>16539</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2963,13 +2960,13 @@
         <v>4181</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H38" s="7">
         <v>18</v>
@@ -2978,13 +2975,13 @@
         <v>10506</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M38" s="7">
         <v>25</v>
@@ -2993,13 +2990,13 @@
         <v>14686</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3055,7 +3052,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5410A_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5410A_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{799F7800-D7FC-47FF-982D-4F0166D4AE98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4816987-DA1C-4553-9590-863592A4FB67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{20513BB8-D0DD-4247-A3BB-47F02096B799}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EC8260A5-ADCF-47A3-A4FC-24052DBBA71D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>No soy capaz de usarlo</t>
@@ -146,7 +146,7 @@
     <t>80,75%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>24,79%</t>
@@ -248,7 +248,7 @@
     <t>47,3%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>10,78%</t>
@@ -359,7 +359,7 @@
     <t>44,98%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -1092,7 +1092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2FF26CF-E202-487A-A769-A898FF7314E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF3B5150-1CDD-4169-AE59-473F0636DD2E}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/Q5410A_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5410A_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4816987-DA1C-4553-9590-863592A4FB67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CDADB22-9EC4-4B39-84B3-AABC12D7706A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EC8260A5-ADCF-47A3-A4FC-24052DBBA71D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7CDA9827-3849-43C0-B5D1-5A6227A06B24}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="216">
   <si>
     <t>Población según si necesita  enema o supositorio y es capaz de utilizarlos en 2023 (Tasa respuesta: 1,24%)</t>
   </si>
@@ -167,16 +167,16 @@
     <t>23,79%</t>
   </si>
   <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
   </si>
   <si>
     <t>21,23%</t>
   </si>
   <si>
-    <t>74,2%</t>
+    <t>80,25%</t>
   </si>
   <si>
     <t>35,94%</t>
@@ -191,10 +191,10 @@
     <t>31,72%</t>
   </si>
   <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
   </si>
   <si>
     <t>11,83%</t>
@@ -206,7 +206,7 @@
     <t>19,85%</t>
   </si>
   <si>
-    <t>78,91%</t>
+    <t>72,89%</t>
   </si>
   <si>
     <t>25,57%</t>
@@ -221,16 +221,16 @@
     <t>23,93%</t>
   </si>
   <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
   </si>
   <si>
     <t>34,13%</t>
   </si>
   <si>
-    <t>74,51%</t>
+    <t>73,4%</t>
   </si>
   <si>
     <t>15,1%</t>
@@ -242,10 +242,10 @@
     <t>20,56%</t>
   </si>
   <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -254,7 +254,7 @@
     <t>10,78%</t>
   </si>
   <si>
-    <t>51,26%</t>
+    <t>52,12%</t>
   </si>
   <si>
     <t>20,24%</t>
@@ -269,16 +269,16 @@
     <t>17,89%</t>
   </si>
   <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
   </si>
   <si>
     <t>29,89%</t>
   </si>
   <si>
-    <t>74,88%</t>
+    <t>74,63%</t>
   </si>
   <si>
     <t>25,36%</t>
@@ -293,10 +293,10 @@
     <t>26,49%</t>
   </si>
   <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
   </si>
   <si>
     <t>4,58%</t>
@@ -308,13 +308,13 @@
     <t>3,44%</t>
   </si>
   <si>
-    <t>15,98%</t>
+    <t>18,06%</t>
   </si>
   <si>
     <t>32,63%</t>
   </si>
   <si>
-    <t>75,8%</t>
+    <t>75,41%</t>
   </si>
   <si>
     <t>23,24%</t>
@@ -329,63 +329,66 @@
     <t>25,58%</t>
   </si>
   <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>72,6%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>62,22%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
     <t>12,1%</t>
   </si>
   <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>47,32%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>62,22%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
     <t>63,59%</t>
   </si>
   <si>
@@ -452,19 +455,19 @@
     <t>13,3%</t>
   </si>
   <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
   </si>
   <si>
     <t>16,48%</t>
   </si>
   <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
   </si>
   <si>
     <t>34,84%</t>
@@ -476,31 +479,31 @@
     <t>22,26%</t>
   </si>
   <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
   </si>
   <si>
     <t>24,66%</t>
   </si>
   <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
   </si>
   <si>
     <t>10,15%</t>
   </si>
   <si>
-    <t>34,21%</t>
+    <t>34,42%</t>
   </si>
   <si>
     <t>8,21%</t>
   </si>
   <si>
-    <t>27,43%</t>
+    <t>29,38%</t>
   </si>
   <si>
     <t>17,5%</t>
@@ -512,19 +515,19 @@
     <t>39,9%</t>
   </si>
   <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>68,54%</t>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
   </si>
   <si>
     <t>35,62%</t>
   </si>
   <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
   </si>
   <si>
     <t>17,7%</t>
@@ -536,73 +539,73 @@
     <t>14,39%</t>
   </si>
   <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
   </si>
   <si>
     <t>15,02%</t>
   </si>
   <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
   </si>
   <si>
     <t>15,27%</t>
   </si>
   <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
   </si>
   <si>
     <t>17,65%</t>
   </si>
   <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
   </si>
   <si>
     <t>17,08%</t>
   </si>
   <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
   </si>
   <si>
     <t>40,92%</t>
   </si>
   <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
   </si>
   <si>
     <t>29,37%</t>
   </si>
   <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
   </si>
   <si>
     <t>32,15%</t>
   </si>
   <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
   </si>
   <si>
     <t>7,32%</t>
@@ -611,73 +614,73 @@
     <t>4,72%</t>
   </si>
   <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
   </si>
   <si>
     <t>3,59%</t>
   </si>
   <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
   </si>
   <si>
     <t>17,52%</t>
   </si>
   <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
   </si>
   <si>
     <t>27,36%</t>
   </si>
   <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
   </si>
   <si>
     <t>24,99%</t>
   </si>
   <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
   </si>
   <si>
     <t>26,29%</t>
   </si>
   <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
   </si>
   <si>
     <t>20,9%</t>
   </si>
   <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
   </si>
   <si>
     <t>22,19%</t>
   </si>
   <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1092,7 +1095,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF3B5150-1CDD-4169-AE59-473F0636DD2E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C009B37-1D3A-4C10-8D0B-1ED241481548}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2209,10 +2212,10 @@
         <v>115</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M23" s="7">
         <v>9</v>
@@ -2221,13 +2224,13 @@
         <v>6421</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2263,7 +2266,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -2278,7 +2281,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2308,13 +2311,13 @@
         <v>1311</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -2323,13 +2326,13 @@
         <v>1311</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2344,13 +2347,13 @@
         <v>787</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -2359,13 +2362,13 @@
         <v>2558</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -2374,13 +2377,13 @@
         <v>3346</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2436,7 +2439,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2448,13 +2451,13 @@
         <v>1210</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H28" s="7">
         <v>4</v>
@@ -2463,13 +2466,13 @@
         <v>2275</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M28" s="7">
         <v>6</v>
@@ -2478,13 +2481,13 @@
         <v>3485</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2499,13 +2502,13 @@
         <v>1407</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H29" s="7">
         <v>6</v>
@@ -2514,13 +2517,13 @@
         <v>3808</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M29" s="7">
         <v>8</v>
@@ -2529,13 +2532,13 @@
         <v>5215</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2565,13 +2568,13 @@
         <v>1737</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M30" s="7">
         <v>2</v>
@@ -2580,13 +2583,13 @@
         <v>1737</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2601,13 +2604,13 @@
         <v>707</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H31" s="7">
         <v>7</v>
@@ -2616,13 +2619,13 @@
         <v>6826</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M31" s="7">
         <v>8</v>
@@ -2631,13 +2634,13 @@
         <v>7533</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2652,13 +2655,13 @@
         <v>715</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H32" s="7">
         <v>4</v>
@@ -2667,13 +2670,13 @@
         <v>2462</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M32" s="7">
         <v>5</v>
@@ -2682,13 +2685,13 @@
         <v>3177</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2756,13 +2759,13 @@
         <v>2428</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H34" s="7">
         <v>16</v>
@@ -2771,13 +2774,13 @@
         <v>8876</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M34" s="7">
         <v>21</v>
@@ -2786,13 +2789,13 @@
         <v>11303</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2807,13 +2810,13 @@
         <v>6506</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H35" s="7">
         <v>28</v>
@@ -2822,13 +2825,13 @@
         <v>14767</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M35" s="7">
         <v>37</v>
@@ -2837,13 +2840,13 @@
         <v>21272</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2864,7 +2867,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H36" s="7">
         <v>3</v>
@@ -2873,13 +2876,13 @@
         <v>2374</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M36" s="7">
         <v>3</v>
@@ -2888,13 +2891,13 @@
         <v>2374</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2909,13 +2912,13 @@
         <v>2786</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H37" s="7">
         <v>18</v>
@@ -2924,13 +2927,13 @@
         <v>13753</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M37" s="7">
         <v>22</v>
@@ -2939,13 +2942,13 @@
         <v>16539</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2960,13 +2963,13 @@
         <v>4181</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H38" s="7">
         <v>18</v>
@@ -2975,13 +2978,13 @@
         <v>10506</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M38" s="7">
         <v>25</v>
@@ -2990,13 +2993,13 @@
         <v>14686</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3052,7 +3055,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5410A_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5410A_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CDADB22-9EC4-4B39-84B3-AABC12D7706A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A771F20-2173-4912-A8BB-4D8319AF7C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7CDA9827-3849-43C0-B5D1-5A6227A06B24}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{10576578-FF45-425C-8A43-689A1291D815}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="199">
   <si>
     <t>Población según si necesita  enema o supositorio y es capaz de utilizarlos en 2023 (Tasa respuesta: 1,24%)</t>
   </si>
@@ -65,622 +65,571 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>No soy capaz de usarlo</t>
   </si>
   <si>
+    <t>22,0%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>No utilizo enema o supositorio</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>Sí, por otro</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
-    <t>77,15%</t>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>Sí, con ayuda</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>Sí, por sí solo/a</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>74,27%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>65,74%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
   </si>
   <si>
     <t>26,42%</t>
   </si>
   <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>No utilizo enema o supositorio</t>
-  </si>
-  <si>
-    <t>55,06%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>Sí, por otro</t>
-  </si>
-  <si>
-    <t>Sí, con ayuda</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>Sí, por sí solo/a</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>54,95%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>72,89%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>53,83%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>41,91%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>49,83%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>62,19%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
   </si>
   <si>
     <t>3,44%</t>
   </si>
   <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>72,6%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>47,32%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>62,22%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
   </si>
   <si>
     <t>30,99%</t>
   </si>
   <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>57,32%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>49,5%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>69,46%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>68,16%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>40,92%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1095,8 +1044,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C009B37-1D3A-4C10-8D0B-1ED241481548}">
-  <dimension ref="A1:Q40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAB13C65-B7C6-406E-BEA6-98CF4411DABD}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1213,10 +1162,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>683</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1228,91 +1177,91 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>1560</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>2243</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>567</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="7">
+        <v>10</v>
+      </c>
+      <c r="I5" s="7">
+        <v>3811</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="7">
         <v>11</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="7">
-        <v>4</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1519</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="7">
-        <v>4</v>
-      </c>
       <c r="N5" s="7">
-        <v>1519</v>
+        <v>4378</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -1321,13 +1270,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -1336,13 +1285,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -1351,115 +1300,115 @@
         <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I7" s="7">
-        <v>537</v>
+        <v>2058</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N7" s="7">
-        <v>537</v>
+        <v>2562</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8" s="7">
-        <v>456</v>
+        <v>1350</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I8" s="7">
-        <v>703</v>
+        <v>1547</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="M8" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N8" s="7">
-        <v>1159</v>
+        <v>2897</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1468,159 +1417,159 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D9" s="7">
-        <v>456</v>
+        <v>3103</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="H9" s="7">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="I9" s="7">
-        <v>2759</v>
+        <v>8977</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="M9" s="7">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="N9" s="7">
-        <v>3216</v>
+        <v>12080</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>721</v>
+        <v>472</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="H10" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I10" s="7">
-        <v>1693</v>
+        <v>2609</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="M10" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N10" s="7">
-        <v>2414</v>
+        <v>3080</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>618</v>
+        <v>1230</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="H11" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I11" s="7">
-        <v>2602</v>
+        <v>3110</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="M11" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N11" s="7">
-        <v>3219</v>
+        <v>4341</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C12" s="7">
         <v>0</v>
@@ -1629,145 +1578,145 @@
         <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>536</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>536</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>577</v>
+        <v>1237</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="H13" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I13" s="7">
-        <v>1851</v>
+        <v>2631</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="M13" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N13" s="7">
-        <v>2429</v>
+        <v>3867</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C14" s="7">
         <v>2</v>
       </c>
       <c r="D14" s="7">
-        <v>993</v>
+        <v>1156</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="H14" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I14" s="7">
-        <v>1093</v>
+        <v>3263</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="M14" s="7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N14" s="7">
-        <v>2086</v>
+        <v>4420</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1776,159 +1725,159 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D15" s="7">
-        <v>2909</v>
+        <v>4095</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="H15" s="7">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="I15" s="7">
-        <v>7239</v>
+        <v>12149</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="M15" s="7">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="N15" s="7">
-        <v>10148</v>
+        <v>16244</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>496</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="H16" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I16" s="7">
-        <v>2811</v>
+        <v>1668</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N16" s="7">
-        <v>3307</v>
+        <v>1668</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" s="7">
-        <v>1375</v>
+        <v>2939</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I17" s="7">
-        <v>3522</v>
+        <v>2989</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
       </c>
       <c r="N17" s="7">
-        <v>4898</v>
+        <v>5927</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -1937,145 +1886,145 @@
         <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="H18" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" s="7">
-        <v>637</v>
+        <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="M18" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18" s="7">
-        <v>637</v>
+        <v>0</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C19" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>1501</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>92</v>
       </c>
       <c r="H19" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>3228</v>
+        <v>1120</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="M19" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N19" s="7">
-        <v>4729</v>
+        <v>1120</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C20" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>1228</v>
+        <v>746</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="H20" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I20" s="7">
-        <v>3689</v>
+        <v>2218</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="M20" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N20" s="7">
-        <v>4918</v>
+        <v>2965</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2084,159 +2033,159 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D21" s="7">
-        <v>4601</v>
+        <v>3685</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="H21" s="7">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="I21" s="7">
-        <v>13887</v>
+        <v>7995</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="M21" s="7">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="N21" s="7">
-        <v>18488</v>
+        <v>11680</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>1151</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="H22" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I22" s="7">
-        <v>2097</v>
+        <v>2056</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>11</v>
+        <v>123</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="M22" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N22" s="7">
-        <v>2097</v>
+        <v>3207</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" s="7">
-        <v>3105</v>
+        <v>1223</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="H23" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I23" s="7">
-        <v>3316</v>
+        <v>3250</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="M23" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N23" s="7">
-        <v>6421</v>
+        <v>4473</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C24" s="7">
         <v>0</v>
@@ -2245,145 +2194,145 @@
         <v>0</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="H24" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" s="7">
-        <v>0</v>
+        <v>1428</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>11</v>
+        <v>136</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="M24" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N24" s="7">
-        <v>0</v>
+        <v>1428</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>11</v>
+        <v>138</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>611</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>11</v>
+        <v>140</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="H25" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I25" s="7">
-        <v>1311</v>
+        <v>4602</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>11</v>
+        <v>143</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="M25" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N25" s="7">
-        <v>1311</v>
+        <v>5213</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C26" s="7">
         <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>787</v>
+        <v>615</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
       </c>
       <c r="I26" s="7">
-        <v>2558</v>
+        <v>2094</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
       </c>
       <c r="N26" s="7">
-        <v>3346</v>
+        <v>2709</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2392,159 +2341,159 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D27" s="7">
-        <v>3892</v>
+        <v>3600</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="H27" s="7">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I27" s="7">
-        <v>9283</v>
+        <v>13429</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="M27" s="7">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="N27" s="7">
-        <v>13175</v>
+        <v>17030</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>135</v>
+        <v>3</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" s="7">
-        <v>1210</v>
+        <v>2306</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>11</v>
+        <v>157</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="H28" s="7">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="I28" s="7">
-        <v>2275</v>
+        <v>7893</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="M28" s="7">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="N28" s="7">
-        <v>3485</v>
+        <v>10198</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D29" s="7">
-        <v>1407</v>
+        <v>5958</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>11</v>
+        <v>166</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="H29" s="7">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="I29" s="7">
-        <v>3808</v>
+        <v>13161</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="M29" s="7">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="N29" s="7">
-        <v>5215</v>
+        <v>19119</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C30" s="7">
         <v>0</v>
@@ -2553,145 +2502,145 @@
         <v>0</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>14</v>
+        <v>174</v>
       </c>
       <c r="H30" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I30" s="7">
-        <v>1737</v>
+        <v>1964</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>11</v>
+        <v>176</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="M30" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N30" s="7">
-        <v>1737</v>
+        <v>1964</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>11</v>
+        <v>179</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C31" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D31" s="7">
-        <v>707</v>
+        <v>2351</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>11</v>
+        <v>182</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="H31" s="7">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="I31" s="7">
-        <v>6826</v>
+        <v>10411</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="M31" s="7">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="N31" s="7">
-        <v>7533</v>
+        <v>12762</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C32" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D32" s="7">
-        <v>715</v>
+        <v>3868</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>11</v>
+        <v>191</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="H32" s="7">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="I32" s="7">
-        <v>2462</v>
+        <v>9123</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="L32" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="M32" s="7">
+        <v>25</v>
+      </c>
+      <c r="N32" s="7">
+        <v>12991</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="M32" s="7">
-        <v>5</v>
-      </c>
-      <c r="N32" s="7">
-        <v>3177</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2700,370 +2649,61 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D33" s="7">
-        <v>4040</v>
+        <v>14483</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="H33" s="7">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="I33" s="7">
-        <v>17107</v>
+        <v>42551</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="M33" s="7">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="N33" s="7">
-        <v>21147</v>
+        <v>57033</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="7">
-        <v>5</v>
-      </c>
-      <c r="D34" s="7">
-        <v>2428</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="H34" s="7">
-        <v>16</v>
-      </c>
-      <c r="I34" s="7">
-        <v>8876</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="M34" s="7">
-        <v>21</v>
-      </c>
-      <c r="N34" s="7">
-        <v>11303</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="7">
-        <v>9</v>
-      </c>
-      <c r="D35" s="7">
-        <v>6506</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="H35" s="7">
-        <v>28</v>
-      </c>
-      <c r="I35" s="7">
-        <v>14767</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="M35" s="7">
-        <v>37</v>
-      </c>
-      <c r="N35" s="7">
-        <v>21272</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C36" s="7">
-        <v>0</v>
-      </c>
-      <c r="D36" s="7">
-        <v>0</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="H36" s="7">
-        <v>3</v>
-      </c>
-      <c r="I36" s="7">
-        <v>2374</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="M36" s="7">
-        <v>3</v>
-      </c>
-      <c r="N36" s="7">
-        <v>2374</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C37" s="7">
-        <v>4</v>
-      </c>
-      <c r="D37" s="7">
-        <v>2786</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="F37" s="7" t="s">
+      <c r="A34" t="s">
         <v>198</v>
       </c>
-      <c r="G37" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="H37" s="7">
-        <v>18</v>
-      </c>
-      <c r="I37" s="7">
-        <v>13753</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="M37" s="7">
-        <v>22</v>
-      </c>
-      <c r="N37" s="7">
-        <v>16539</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C38" s="7">
-        <v>7</v>
-      </c>
-      <c r="D38" s="7">
-        <v>4181</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="H38" s="7">
-        <v>18</v>
-      </c>
-      <c r="I38" s="7">
-        <v>10506</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="M38" s="7">
-        <v>25</v>
-      </c>
-      <c r="N38" s="7">
-        <v>14686</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="7">
-        <v>25</v>
-      </c>
-      <c r="D39" s="7">
-        <v>15900</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H39" s="7">
-        <v>83</v>
-      </c>
-      <c r="I39" s="7">
-        <v>50275</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M39" s="7">
-        <v>108</v>
-      </c>
-      <c r="N39" s="7">
-        <v>66174</v>
-      </c>
-      <c r="O39" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>215</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A34:A39"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
